--- a/01-Excel/03-处理重复函数/视频操作文件/针对海量数据，如何快速定位？01.xlsx
+++ b/01-Excel/03-处理重复函数/视频操作文件/针对海量数据，如何快速定位？01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/03-处理重复函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA3D320-1F35-3941-8470-B96BEE71E7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7EF540-C158-1B41-B810-D762C93A0D8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2654,17 +2654,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2964,7 +2954,7 @@
   <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9421,7 +9411,7 @@
   <autoFilter ref="A1:A222" xr:uid="{3A7DE7A8-B9C9-EC44-A6E8-5F79DFF484A4}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A454:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
